--- a/biology/Médecine/Classification_internationale_des_céphalées/Classification_internationale_des_céphalées.xlsx
+++ b/biology/Médecine/Classification_internationale_des_céphalées/Classification_internationale_des_céphalées.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Classification_internationale_des_c%C3%A9phal%C3%A9es</t>
+          <t>Classification_internationale_des_céphalées</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Classification internationale des céphalées (CIC ; en anglais : International Classification of Headache Disorders, ICHD) est une classification hiérarchique des troubles et maladies liés aux céphalées créée par l'International Headache Society[1]. Elle a été considérée en tant que classification officielle des céphalées par l'Organisation mondiale de la santé, et, en 1992, a été incorporée dans la 10e édition de la Classification internationale des maladies (CIM-10)[2].
-La CIC a été publiée pour la première fois en 1988[3] (sous le titre de CIC-1). La seconde et actuelle version, la CIC-2, a été publiée en 2004.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Classification internationale des céphalées (CIC ; en anglais : International Classification of Headache Disorders, ICHD) est une classification hiérarchique des troubles et maladies liés aux céphalées créée par l'International Headache Society. Elle a été considérée en tant que classification officielle des céphalées par l'Organisation mondiale de la santé, et, en 1992, a été incorporée dans la 10e édition de la Classification internationale des maladies (CIM-10).
+La CIC a été publiée pour la première fois en 1988 (sous le titre de CIC-1). La seconde et actuelle version, la CIC-2, a été publiée en 2004.
 </t>
         </is>
       </c>
